--- a/data/long_razon/P30-Urba-long_razon.xlsx
+++ b/data/long_razon/P30-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 86,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 110,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 13,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 83,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 5,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 72,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 49,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 110,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 70,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 18,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 20,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 120,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 211,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 26,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 54,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 41,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 46,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 20,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,44; 92,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 58,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 6,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P30-Urba-long_razon.xlsx
+++ b/data/long_razon/P30-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P30-Urba-long_razon.xlsx
+++ b/data/long_razon/P30-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2139954159752059</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1085776587069361</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2252567050453979</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1348070208406039</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7044993332857</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.07101061374719951</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.02986507188609017</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1646388837165156</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.4271991362609112</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.08951266619933682</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.101810285487811</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.01872905455254</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.1227246435471204</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3291692384146729</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4948648104031006</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1738262905663788</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.2907153453510783</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.252666239259565</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2088844205958631</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3330790620109436</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1597245158180141</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2473653907182606</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3293483421669787</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.19015485666534</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.7155142481860645</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.172364644419853</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.06123031494239683</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.5217223035731386</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.209168316274062</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1909502827305488</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3607582017459035</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.09051699416817652</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.7461982940063792</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.08500847696645324</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1081208783891313</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.1921927370552872</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.2011963917978672</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1231521768037444</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1566858471132247</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7936656362765354</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4849040846304866</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1068869549178358</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.05974062989366095</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.287078510841406</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3264293867030771</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.002899010593508053</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1069024046206538</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1531688911690993</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1377358683904128</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1684461304419957</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1830475855165312</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.05378314586503818</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.1053494225872473</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3194929962722683</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.207316133693957</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5909035264618712</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.05079474553656971</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1846887424782775</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1069855089139146</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.188006206313384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6800742255936862</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4999038951676765</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.69539707757199</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.398810337581856</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.067093182424431</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1528623759559717</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.439460867653973</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2214981195871465</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6755093494563008</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2170743383208687</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4063111603424041</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8380255645365363</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3486459296178764</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.256802414501257</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.491153769899857</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.5266730772076447</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.238501580149479</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.03511543165544984</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.0296154281314286</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.0007103367712773253</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.7134036087827003</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7107646090618437</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3397145241532428</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1994908788393888</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.1595890420275256</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5315353291984434</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4453373665879108</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3933945229321548</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2963369880534522</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.07350002144959901</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.2893522706560133</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.072140777535908</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.726028885788825</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.902106142347363</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3740059109182112</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.8054876839181815</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.5903763961919034</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4585142162839803</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.908286851814119</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.125170281249764</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02242935221040571</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.06990545825433973</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2597862077748461</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.59173682106458</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1050414104834484</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.041721866790376</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1945776823735857</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3248703530960911</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.04315588533598996</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05582012524250531</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.01887556507244327</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1002225058024402</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1537414980407197</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2030926871412731</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.05617948010571601</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3192801462093022</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2431205095441608</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.126302717382532</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3528786539610202</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1578131499813945</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1496162524154611</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.113620816955757</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1474535455272462</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4040881156987541</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2469812786286577</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3769895883584615</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.684920326242255</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9426544209951404</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.04870749585479652</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2607420583929961</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.01121114482692883</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5347591506480114</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.0816540716863712</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2515856022005424</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2294342017681754</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
